--- a/approaches/evaluation_logs/baseline/train-5-evaluation_log-SambaNova_Meta-Llama-3.3-70B-Instruct-converted.xlsx
+++ b/approaches/evaluation_logs/baseline/train-5-evaluation_log-SambaNova_Meta-Llama-3.3-70B-Instruct-converted.xlsx
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
